--- a/pred_ohlcv/54_21/2020-01-16 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>15633.97556454622</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>10099.23206454622</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>9757.682464546222</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>9851.682464546222</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9019.536764546221</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9019.66676454622</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>9086.66676454622</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10660.45316454622</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>10421.45316454622</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-14547.35523545378</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-12260.31413545378</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-12260.31413545378</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-10027.64443545378</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-9617.55443545378</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-10613.87393545378</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-11067.59453545378</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3518.998135453778</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3286.998135453778</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3063.862235453777</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3622.236635453778</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2658.977735453777</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3349.687535453777</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3498.717664546223</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3498.717664546223</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>6198.855564546223</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5998.905564546223</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>6671.218864546223</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>13036.09646454622</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>13324.24506454622</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>13838.39926454622</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>13713.32316454622</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>11247.53376454622</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>14068.92346454622</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>14068.92346454622</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>13612.72176454622</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>13619.91966454622</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>13945.95596454622</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>13945.95596454622</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>13861.95596454622</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-30769.88683545378</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>9689.805264546223</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>11286.83776454622</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>12948.83776454622</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>15633.97556454622</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>10099.23206454622</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>9757.682464546222</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>9851.682464546222</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9019.536764546221</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9019.66676454622</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>9086.66676454622</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10660.45316454622</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>10421.45316454622</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-14547.35523545378</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-12260.31413545378</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-12260.31413545378</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-10027.64443545378</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-9617.55443545378</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-10613.87393545378</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-11054.11453545378</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-11067.59453545378</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3518.998135453778</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3286.998135453778</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3063.862235453777</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3622.236635453778</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3522.236635453778</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2658.977735453777</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3349.687535453777</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3498.717664546223</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3498.717664546223</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>6198.855564546223</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5998.905564546223</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>6671.218864546223</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>13036.09646454622</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>13324.24506454622</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>11247.53376454622</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>14068.92346454622</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>14068.92346454622</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>13612.72176454622</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>13619.91966454622</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>13945.95596454622</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>13945.95596454622</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>13861.95596454622</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-30769.88683545378</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-28678.88843545378</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-28678.88843545378</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-28581.88843545378</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-28426.88843545378</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-24726.88843545378</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-24004.09453545378</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-24265.47813545378</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-24436.49763545378</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-24265.49763545378</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-24269.48013545378</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-24017.18383545378</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-24017.18383545378</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-22373.78333545378</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-22373.78333545378</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>9689.805264546223</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>11286.83776454622</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>12948.83776454622</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
